--- a/data/trans_orig/P1413-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>103256</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87260</v>
+        <v>85097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123507</v>
+        <v>121406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1487812072419813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1257329328893411</v>
+        <v>0.1226158803880027</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1779614239001497</v>
+        <v>0.1749340205437623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -765,19 +765,19 @@
         <v>110232</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92169</v>
+        <v>92984</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129799</v>
+        <v>129849</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1601386535232169</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1338987289042715</v>
+        <v>0.1350824471215765</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1885658289392923</v>
+        <v>0.1886371484611031</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>216</v>
@@ -786,19 +786,19 @@
         <v>213488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>185709</v>
+        <v>187293</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>242689</v>
+        <v>239516</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.154436674697593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1343418720500891</v>
+        <v>0.1354874950229926</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1755609753604254</v>
+        <v>0.1732657542455145</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>590756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>570505</v>
+        <v>572606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>606752</v>
+        <v>608915</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8512187927580187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8220385760998503</v>
+        <v>0.8250659794562378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8742670671106593</v>
+        <v>0.8773841196119974</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>584</v>
@@ -836,19 +836,19 @@
         <v>578119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>558552</v>
+        <v>558502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>596182</v>
+        <v>595367</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.839861346476783</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8114341710607077</v>
+        <v>0.8113628515388968</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8661012710957285</v>
+        <v>0.8649175528784234</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1163</v>
@@ -857,19 +857,19 @@
         <v>1168875</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1139674</v>
+        <v>1142847</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1196654</v>
+        <v>1195070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.845563325302407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8244390246395747</v>
+        <v>0.8267342457544857</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8656581279499109</v>
+        <v>0.8645125049770074</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>129699</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108836</v>
+        <v>109756</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151710</v>
+        <v>151238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1348504522185008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1131583249526226</v>
+        <v>0.1141147307242305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1577354615800696</v>
+        <v>0.1572446311521931</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>174</v>
@@ -982,19 +982,19 @@
         <v>191027</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>166146</v>
+        <v>167402</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216397</v>
+        <v>219183</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1972617668154525</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1715689695769744</v>
+        <v>0.1728657018905034</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2234598541399891</v>
+        <v>0.2263367792162066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>296</v>
@@ -1003,19 +1003,19 @@
         <v>320726</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>287414</v>
+        <v>289908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>354353</v>
+        <v>357532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1661627001749066</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1489042884945271</v>
+        <v>0.1501962119809484</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1835844226053672</v>
+        <v>0.1852313844375069</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>832101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>810090</v>
+        <v>810562</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>852964</v>
+        <v>852044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8651495477814991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8422645384199308</v>
+        <v>0.8427553688478071</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8868416750473778</v>
+        <v>0.8858852692757696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>734</v>
@@ -1053,19 +1053,19 @@
         <v>777366</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>751996</v>
+        <v>749210</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>802247</v>
+        <v>800991</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8027382331845475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.776540145860011</v>
+        <v>0.7736632207837931</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8284310304230256</v>
+        <v>0.8271342981094959</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1508</v>
@@ -1074,19 +1074,19 @@
         <v>1609467</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1575840</v>
+        <v>1572661</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1642779</v>
+        <v>1640285</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8338372998250934</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8164155773946326</v>
+        <v>0.8147686155624931</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8510957115054729</v>
+        <v>0.8498037880190517</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>137087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116755</v>
+        <v>116610</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157987</v>
+        <v>159113</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.202042248824028</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1720753383982526</v>
+        <v>0.1718627128323413</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2328439746632508</v>
+        <v>0.2345037376932594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>189</v>
@@ -1199,19 +1199,19 @@
         <v>180649</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157894</v>
+        <v>159410</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>204000</v>
+        <v>204167</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2641687434625631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2308924945945853</v>
+        <v>0.2331099368630219</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2983152376112613</v>
+        <v>0.2985592701201363</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>323</v>
@@ -1220,19 +1220,19 @@
         <v>317737</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>287499</v>
+        <v>288524</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>348661</v>
+        <v>348506</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2332270750364964</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2110315819458686</v>
+        <v>0.2117840532626839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2559261240730949</v>
+        <v>0.2558127294257841</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>541422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520522</v>
+        <v>519396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>561754</v>
+        <v>561899</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.797957751175972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7671560253367493</v>
+        <v>0.7654962623067407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8279246616017474</v>
+        <v>0.8281372871676589</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>507</v>
@@ -1270,19 +1270,19 @@
         <v>503192</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>479841</v>
+        <v>479674</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>525947</v>
+        <v>524431</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7358312565374369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7016847623887387</v>
+        <v>0.7014407298798638</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7691075054054148</v>
+        <v>0.7668900631369786</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1014</v>
@@ -1291,19 +1291,19 @@
         <v>1044613</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1013689</v>
+        <v>1013844</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1074851</v>
+        <v>1073826</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7667729249635036</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7440738759269054</v>
+        <v>0.744187270574216</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7889684180541314</v>
+        <v>0.7882159467373162</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>160206</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138754</v>
+        <v>139105</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>183837</v>
+        <v>183775</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1700298406906661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1472623491031919</v>
+        <v>0.1476347414831158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.19511011086834</v>
+        <v>0.1950445174776005</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>163</v>
@@ -1416,19 +1416,19 @@
         <v>168311</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143638</v>
+        <v>145284</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>193650</v>
+        <v>193695</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1620534333634112</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1382978890491924</v>
+        <v>0.1398829988762973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1864509773350168</v>
+        <v>0.186494163613333</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>341</v>
@@ -1437,19 +1437,19 @@
         <v>328516</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>298104</v>
+        <v>295275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>363122</v>
+        <v>362550</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1658475659645018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1504942878041295</v>
+        <v>0.1490659078629073</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1833177362196945</v>
+        <v>0.1830292136457555</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>782016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>758385</v>
+        <v>758447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>803468</v>
+        <v>803117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8299701593093338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8048898891316598</v>
+        <v>0.804955482522399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8527376508968081</v>
+        <v>0.8523652585168842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>834</v>
@@ -1487,19 +1487,19 @@
         <v>870301</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>844962</v>
+        <v>844917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>894974</v>
+        <v>893328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8379465666365888</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8135490226649833</v>
+        <v>0.8135058363866672</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8617021109508078</v>
+        <v>0.8601170011237028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1650</v>
@@ -1508,19 +1508,19 @@
         <v>1652318</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1617712</v>
+        <v>1618284</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1682730</v>
+        <v>1685559</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8341524340354982</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8166822637803054</v>
+        <v>0.8169707863542445</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8495057121958705</v>
+        <v>0.8509340921370928</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>530248</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>486494</v>
+        <v>493007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>574118</v>
+        <v>577396</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.161831676252726</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1484779204118798</v>
+        <v>0.1504657268873401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1752205520105942</v>
+        <v>0.1762209470458292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>638</v>
@@ -1633,19 +1633,19 @@
         <v>650219</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>603165</v>
+        <v>604311</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>695624</v>
+        <v>696819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1924180749738701</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1784936176616126</v>
+        <v>0.1788327100148702</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2058547955038011</v>
+        <v>0.2062084375556609</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1176</v>
@@ -1654,19 +1654,19 @@
         <v>1180467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1118387</v>
+        <v>1114031</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1246914</v>
+        <v>1235946</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1773607483701837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.168033460816211</v>
+        <v>0.1673790186796687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1873441785768108</v>
+        <v>0.1856962932207405</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2746295</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2702425</v>
+        <v>2699147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2790049</v>
+        <v>2783536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8381683237472739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8247794479894057</v>
+        <v>0.8237790529541708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8515220795881202</v>
+        <v>0.8495342731126598</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2659</v>
@@ -1704,19 +1704,19 @@
         <v>2728978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2683573</v>
+        <v>2682378</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2776032</v>
+        <v>2774886</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8075819250261298</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7941452044961991</v>
+        <v>0.7937915624443391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8215063823383875</v>
+        <v>0.8211672899851298</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5335</v>
@@ -1725,19 +1725,19 @@
         <v>5475274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5408827</v>
+        <v>5419795</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5537354</v>
+        <v>5541710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8226392516298163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8126558214231888</v>
+        <v>0.8143037067792593</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.831966539183789</v>
+        <v>0.832620981320331</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>79134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63826</v>
+        <v>63889</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96586</v>
+        <v>98101</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1124905816334964</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09073032366992469</v>
+        <v>0.0908199932358999</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1372991573494562</v>
+        <v>0.1394528583487867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>133</v>
@@ -2090,19 +2090,19 @@
         <v>145108</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122267</v>
+        <v>125009</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168244</v>
+        <v>168134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2081741665681386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1754069949587281</v>
+        <v>0.1793406002996862</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2413659834151995</v>
+        <v>0.2412083431355682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>210</v>
@@ -2111,19 +2111,19 @@
         <v>224241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196040</v>
+        <v>198613</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>256103</v>
+        <v>254700</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1601131014668251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1399764733396248</v>
+        <v>0.141813745254724</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1828625907117803</v>
+        <v>0.181861296078258</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>624335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>606883</v>
+        <v>605368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>639643</v>
+        <v>639580</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8875094183665037</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8627008426505437</v>
+        <v>0.860547141651213</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9092696763300753</v>
+        <v>0.9091800067640999</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>517</v>
@@ -2161,19 +2161,19 @@
         <v>551942</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>528806</v>
+        <v>528916</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>574783</v>
+        <v>572041</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7918258334318614</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7586340165848011</v>
+        <v>0.7587916568644317</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.824593005041272</v>
+        <v>0.8206593997003138</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1114</v>
@@ -2182,19 +2182,19 @@
         <v>1176278</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1144416</v>
+        <v>1145819</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1204479</v>
+        <v>1201906</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8398868985331749</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8171374092882197</v>
+        <v>0.8181387039217418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8600235266603752</v>
+        <v>0.8581862547452761</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>106298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86915</v>
+        <v>86517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127968</v>
+        <v>127510</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1044239818122699</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08538290631106449</v>
+        <v>0.08499175819547049</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1257122169639474</v>
+        <v>0.1252616243024644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>164</v>
@@ -2307,19 +2307,19 @@
         <v>181041</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>156770</v>
+        <v>157860</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206363</v>
+        <v>206893</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1759436997944995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1523561389799884</v>
+        <v>0.1534152926223546</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2005528786056744</v>
+        <v>0.201067463254298</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>261</v>
@@ -2328,19 +2328,19 @@
         <v>287340</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>256176</v>
+        <v>256885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>321776</v>
+        <v>321130</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1403764698752165</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1251517892296044</v>
+        <v>0.1254982624621417</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1572001991587324</v>
+        <v>0.1568844291752342</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>911649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>889979</v>
+        <v>890437</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>931032</v>
+        <v>931430</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.89557601818773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8742877830360526</v>
+        <v>0.8747383756975357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9146170936889355</v>
+        <v>0.9150082418045296</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>774</v>
@@ -2378,19 +2378,19 @@
         <v>847932</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>822610</v>
+        <v>822080</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>872203</v>
+        <v>871113</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8240563002055006</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7994471213943257</v>
+        <v>0.798932536745702</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8476438610200117</v>
+        <v>0.8465847073776454</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1613</v>
@@ -2399,19 +2399,19 @@
         <v>1759581</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1725145</v>
+        <v>1725791</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1790745</v>
+        <v>1790036</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8596235301247834</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8427998008412676</v>
+        <v>0.8431155708247656</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8748482107703957</v>
+        <v>0.874501737537858</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>48371</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35936</v>
+        <v>36190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63395</v>
+        <v>65176</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.063845972422304</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0474326821829847</v>
+        <v>0.04776782002737804</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08367554543858602</v>
+        <v>0.0860273465528292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -2524,19 +2524,19 @@
         <v>117366</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96520</v>
+        <v>98098</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138555</v>
+        <v>139502</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1510163967457322</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1241935580208079</v>
+        <v>0.1262234713442188</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1782808314320118</v>
+        <v>0.1794996868452882</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -2545,19 +2545,19 @@
         <v>165737</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>141980</v>
+        <v>139259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>193467</v>
+        <v>193024</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1079863856163598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09250736547460248</v>
+        <v>0.09073474628817368</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1260537475892055</v>
+        <v>0.1257651209571581</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>709252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>694228</v>
+        <v>692447</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>721687</v>
+        <v>721433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9361540275776959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9163244545614138</v>
+        <v>0.9139726534471706</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9525673178170152</v>
+        <v>0.9522321799726219</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>596</v>
@@ -2595,19 +2595,19 @@
         <v>659808</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638619</v>
+        <v>637672</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>680654</v>
+        <v>679076</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8489836032542678</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8217191685679881</v>
+        <v>0.8205003131547118</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8758064419791922</v>
+        <v>0.8737765286557811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1242</v>
@@ -2616,19 +2616,19 @@
         <v>1369060</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1341330</v>
+        <v>1341773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1392817</v>
+        <v>1395538</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8920136143836402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8739462524107945</v>
+        <v>0.8742348790428419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9074926345253975</v>
+        <v>0.9092652537118263</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>75150</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58814</v>
+        <v>60530</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92943</v>
+        <v>94776</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07929449953009458</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06205744867555332</v>
+        <v>0.06386778787150744</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09806805476267161</v>
+        <v>0.1000024871143913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -2741,19 +2741,19 @@
         <v>202031</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>176985</v>
+        <v>178732</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230066</v>
+        <v>233856</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1920625343976745</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1682523801074438</v>
+        <v>0.1699130131148492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2187142860335257</v>
+        <v>0.2223172580653251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>258</v>
@@ -2762,19 +2762,19 @@
         <v>277181</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245497</v>
+        <v>248364</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>309037</v>
+        <v>310310</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1386155708340743</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1227705385627936</v>
+        <v>0.124204326084702</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1545461841300976</v>
+        <v>0.155182808524316</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>872589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>854796</v>
+        <v>852963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>888925</v>
+        <v>887209</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9207055004699054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9019319452373284</v>
+        <v>0.8999975128856091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9379425513244469</v>
+        <v>0.9361322121284925</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>816</v>
@@ -2812,19 +2812,19 @@
         <v>849870</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>821835</v>
+        <v>818045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>874916</v>
+        <v>873169</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8079374656023255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7812857139664745</v>
+        <v>0.7776827419346761</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8317476198925563</v>
+        <v>0.8300869868851508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1655</v>
@@ -2833,19 +2833,19 @@
         <v>1722459</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1690603</v>
+        <v>1689330</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1754143</v>
+        <v>1751276</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8613844291659257</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8454538158699024</v>
+        <v>0.844817191475684</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8772294614372065</v>
+        <v>0.875795673915298</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>308953</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>276856</v>
+        <v>276101</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>342302</v>
+        <v>343690</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09015856069546672</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0807917652590808</v>
+        <v>0.08057147521106037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09989017190238039</v>
+        <v>0.1002953473902994</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>593</v>
@@ -2958,19 +2958,19 @@
         <v>645546</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>600691</v>
+        <v>604813</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>695564</v>
+        <v>693124</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1815831537791377</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1689659605699271</v>
+        <v>0.1701255694608248</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1956526500634283</v>
+        <v>0.1949662812637053</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>881</v>
@@ -2979,19 +2979,19 @@
         <v>954499</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>894341</v>
+        <v>896798</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1012130</v>
+        <v>1016417</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1367110012948312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1280945850931611</v>
+        <v>0.1284465322192595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1449653714807951</v>
+        <v>0.1455793343935314</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3117826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3084477</v>
+        <v>3083089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3149923</v>
+        <v>3150678</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9098414393045333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9001098280976195</v>
+        <v>0.8997046526097007</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9192082347409192</v>
+        <v>0.9194285247889395</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2703</v>
@@ -3029,19 +3029,19 @@
         <v>2909552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2859534</v>
+        <v>2861974</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2954407</v>
+        <v>2950285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8184168462208623</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8043473499365716</v>
+        <v>0.8050337187362947</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8310340394300728</v>
+        <v>0.8298744305391754</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5624</v>
@@ -3050,19 +3050,19 @@
         <v>6027378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5969747</v>
+        <v>5965460</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6087536</v>
+        <v>6085079</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8632889987051688</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8550346285192048</v>
+        <v>0.8544206656064686</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8719054149068389</v>
+        <v>0.8715534677807403</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>61026</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47206</v>
+        <v>47612</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>78729</v>
+        <v>78314</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0904356227400565</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06995582935777983</v>
+        <v>0.07055684747593062</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1166700024092698</v>
+        <v>0.116055335518808</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -3415,19 +3415,19 @@
         <v>100642</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83591</v>
+        <v>82736</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119456</v>
+        <v>120542</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1495778783077934</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1242363360877226</v>
+        <v>0.1229654099549151</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1775400458017511</v>
+        <v>0.1791536332884581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -3436,19 +3436,19 @@
         <v>161668</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>139208</v>
+        <v>137014</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>188305</v>
+        <v>185324</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1199637204251503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.103297956140815</v>
+        <v>0.101669942861796</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1397298222946028</v>
+        <v>0.1375171782003848</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>613774</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>596071</v>
+        <v>596486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>627594</v>
+        <v>627188</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9095643772599435</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8833299975907305</v>
+        <v>0.8839446644811921</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9300441706422204</v>
+        <v>0.9294431525240696</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>571</v>
@@ -3486,19 +3486,19 @@
         <v>572197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>553383</v>
+        <v>552297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>589248</v>
+        <v>590103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8504221216922067</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8224599541982488</v>
+        <v>0.820846366711542</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8757636639122774</v>
+        <v>0.8770345900450848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1164</v>
@@ -3507,19 +3507,19 @@
         <v>1185971</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1159334</v>
+        <v>1162315</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1208431</v>
+        <v>1210625</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8800362795748496</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8602701777053967</v>
+        <v>0.8624828217996149</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8967020438591841</v>
+        <v>0.8983300571382038</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>80772</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63922</v>
+        <v>65477</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100940</v>
+        <v>100405</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07900007646307965</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0625197625108635</v>
+        <v>0.06404035379913485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09872501097321885</v>
+        <v>0.09820173714484094</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>125</v>
@@ -3632,19 +3632,19 @@
         <v>140973</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120703</v>
+        <v>118458</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>165572</v>
+        <v>165662</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1351725202296814</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1157368387319267</v>
+        <v>0.1135833151857718</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1587590616156251</v>
+        <v>0.1588457650736478</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -3653,19 +3653,19 @@
         <v>221745</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>193176</v>
+        <v>194099</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>251915</v>
+        <v>251024</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1073648293243674</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09353222177187535</v>
+        <v>0.09397886296217584</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1219721965745203</v>
+        <v>0.1215411716425449</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>941659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>921491</v>
+        <v>922026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>958509</v>
+        <v>956954</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9209999235369204</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9012749890267812</v>
+        <v>0.9017982628551592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9374802374891366</v>
+        <v>0.9359596462008652</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>852</v>
@@ -3703,19 +3703,19 @@
         <v>901940</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>877341</v>
+        <v>877251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>922210</v>
+        <v>924455</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8648274797703186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8412409383843747</v>
+        <v>0.8411542349263523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8842631612680731</v>
+        <v>0.8864166848142284</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1727</v>
@@ -3724,19 +3724,19 @@
         <v>1843599</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1813429</v>
+        <v>1814320</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1872168</v>
+        <v>1871245</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8926351706756326</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8780278034254796</v>
+        <v>0.878458828357455</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9064677782281245</v>
+        <v>0.9060211370378239</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>49575</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36383</v>
+        <v>36543</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64816</v>
+        <v>64385</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06526837533678112</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04790029141103856</v>
+        <v>0.04811087477600753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08533397243661961</v>
+        <v>0.08476712540166818</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -3849,19 +3849,19 @@
         <v>83727</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67399</v>
+        <v>65493</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102379</v>
+        <v>101074</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1066576652347262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08585785082703908</v>
+        <v>0.08342920301232223</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.130417203706556</v>
+        <v>0.1287551964816104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -3870,19 +3870,19 @@
         <v>133302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>110267</v>
+        <v>112671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156987</v>
+        <v>155742</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08630412472579335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0713902623340166</v>
+        <v>0.07294662021419823</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.10163855048792</v>
+        <v>0.1008324485017658</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>709977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>694736</v>
+        <v>695167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>723169</v>
+        <v>723009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9347316246632189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9146660275633804</v>
+        <v>0.9152328745983318</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9520997085889614</v>
+        <v>0.9518891252239925</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>660</v>
@@ -3920,19 +3920,19 @@
         <v>701284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>682632</v>
+        <v>683937</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>717612</v>
+        <v>719518</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8933423347652738</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8695827962934443</v>
+        <v>0.8712448035183896</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.914142149172961</v>
+        <v>0.9165707969876782</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1309</v>
@@ -3941,19 +3941,19 @@
         <v>1411261</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1387576</v>
+        <v>1388821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1434296</v>
+        <v>1431892</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9136958752742067</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8983614495120801</v>
+        <v>0.8991675514982341</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9286097376659834</v>
+        <v>0.9270533797858018</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>86116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70102</v>
+        <v>67815</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106647</v>
+        <v>106200</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.091850005332949</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07477053066437894</v>
+        <v>0.07233123481689298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1137490383363008</v>
+        <v>0.1132717830120444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -4066,19 +4066,19 @@
         <v>167398</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143385</v>
+        <v>143737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>191623</v>
+        <v>193223</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1603769687353432</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1373711713634572</v>
+        <v>0.1377078929467476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1835860495917676</v>
+        <v>0.1851188233904281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>228</v>
@@ -4087,19 +4087,19 @@
         <v>253514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224902</v>
+        <v>220942</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>286578</v>
+        <v>282494</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1279502148751741</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1135098079898384</v>
+        <v>0.1115113073138853</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1446380666329901</v>
+        <v>0.142576941679421</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>851451</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>830920</v>
+        <v>831367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>867465</v>
+        <v>869752</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.908149994667051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8862509616636991</v>
+        <v>0.8867282169879573</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9252294693356202</v>
+        <v>0.9276687651831075</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>812</v>
@@ -4137,19 +4137,19 @@
         <v>876381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>852156</v>
+        <v>850556</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>900394</v>
+        <v>900042</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8396230312646568</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8164139504082325</v>
+        <v>0.8148811766095717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8626288286365431</v>
+        <v>0.8622921070532523</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1663</v>
@@ -4158,19 +4158,19 @@
         <v>1727832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1694768</v>
+        <v>1698852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1756444</v>
+        <v>1760404</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8720497851248259</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8553619333670101</v>
+        <v>0.8574230583205789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8864901920101615</v>
+        <v>0.8884886926861146</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>277488</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>245565</v>
+        <v>242607</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>311764</v>
+        <v>309892</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08175006649319923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07234534503102853</v>
+        <v>0.07147386150837934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09184800556334456</v>
+        <v>0.09129643426613057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>443</v>
@@ -4283,19 +4283,19 @@
         <v>492741</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>453845</v>
+        <v>450531</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>539262</v>
+        <v>538752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1390138869810334</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1280404166860951</v>
+        <v>0.1271055238490895</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1521388044899166</v>
+        <v>0.1519947269217912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>706</v>
@@ -4304,19 +4304,19 @@
         <v>770229</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>717325</v>
+        <v>715984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>825510</v>
+        <v>823104</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1110017116743077</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1033774125033427</v>
+        <v>0.1031841270932156</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.118968511710014</v>
+        <v>0.1186218275903254</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3116862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3082586</v>
+        <v>3084458</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3148785</v>
+        <v>3151743</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9182499335068007</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9081519944366553</v>
+        <v>0.9087035657338692</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9276546549689714</v>
+        <v>0.9285261384916206</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2895</v>
@@ -4354,19 +4354,19 @@
         <v>3051801</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3005280</v>
+        <v>3005790</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3090697</v>
+        <v>3094011</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8609861130189667</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8478611955100827</v>
+        <v>0.8480052730782087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8719595833139049</v>
+        <v>0.8728944761509104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5863</v>
@@ -4375,19 +4375,19 @@
         <v>6168663</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6113382</v>
+        <v>6115788</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6221567</v>
+        <v>6222908</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8889982883256924</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8810314882899862</v>
+        <v>0.8813781724096745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8966225874966574</v>
+        <v>0.8968158729067847</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>135390</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>116046</v>
+        <v>115094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155559</v>
+        <v>156557</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1960161287116107</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1680104320192813</v>
+        <v>0.1666318116545457</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2252163347391056</v>
+        <v>0.2266606463779477</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>437</v>
@@ -4740,19 +4740,19 @@
         <v>227620</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209988</v>
+        <v>210812</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>247962</v>
+        <v>248760</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3106504784440123</v>
+        <v>0.3106504784440122</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2865863997514326</v>
+        <v>0.2877104493342207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3384120859801724</v>
+        <v>0.3395018706029803</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>610</v>
@@ -4761,19 +4761,19 @@
         <v>363011</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>333699</v>
+        <v>336549</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>390006</v>
+        <v>394829</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2550250067537691</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2344331593310563</v>
+        <v>0.2364350848133885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2739899294206311</v>
+        <v>0.2773783193960423</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>555320</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>535151</v>
+        <v>534153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>574664</v>
+        <v>575616</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8039838712883893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7747836652608933</v>
+        <v>0.7733393536220522</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8319895679807183</v>
+        <v>0.8333681883454545</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>801</v>
@@ -4811,19 +4811,19 @@
         <v>505102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>484760</v>
+        <v>483962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>522734</v>
+        <v>521910</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6893495215559878</v>
+        <v>0.6893495215559877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6615879140198276</v>
+        <v>0.6604981293970199</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7134136002485673</v>
+        <v>0.7122895506657794</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1358</v>
@@ -4832,19 +4832,19 @@
         <v>1060420</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1033425</v>
+        <v>1028602</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1089732</v>
+        <v>1086882</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7449749932462308</v>
+        <v>0.744974993246231</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7260100705793694</v>
+        <v>0.7226216806039578</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7655668406689439</v>
+        <v>0.7635649151866117</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>174790</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>151467</v>
+        <v>151349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>199167</v>
+        <v>198941</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1672150444341557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1449028432118832</v>
+        <v>0.1447900566378787</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1905358219987691</v>
+        <v>0.1903197182793774</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>537</v>
@@ -4957,19 +4957,19 @@
         <v>343345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>318714</v>
+        <v>318520</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>374204</v>
+        <v>369363</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3210339279436216</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2980036301730985</v>
+        <v>0.2978222475153239</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3498886285832646</v>
+        <v>0.3453617114546966</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>733</v>
@@ -4978,19 +4978,19 @@
         <v>518134</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>480074</v>
+        <v>480389</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>555116</v>
+        <v>554081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2450044251113646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2270070139602713</v>
+        <v>0.2271560819006464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2624916090519516</v>
+        <v>0.2620020552426203</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>870510</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>846133</v>
+        <v>846359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>893833</v>
+        <v>893951</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8327849555658441</v>
+        <v>0.8327849555658443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8094641780012309</v>
+        <v>0.8096802817206226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8550971567881168</v>
+        <v>0.8552099433621212</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>977</v>
@@ -5028,19 +5028,19 @@
         <v>726151</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>695292</v>
+        <v>700133</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>750782</v>
+        <v>750976</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6789660720563784</v>
+        <v>0.6789660720563783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6501113714167354</v>
+        <v>0.6546382885453033</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7019963698269016</v>
+        <v>0.7021777524846758</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1743</v>
@@ -5049,19 +5049,19 @@
         <v>1596662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1559680</v>
+        <v>1560715</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1634722</v>
+        <v>1634407</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7549955748886354</v>
+        <v>0.7549955748886353</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7375083909480488</v>
+        <v>0.7379979447573797</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7729929860397288</v>
+        <v>0.7728439180993534</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>160737</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138370</v>
+        <v>140027</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191030</v>
+        <v>188089</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2006154862915068</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1726998113686727</v>
+        <v>0.1747677399486756</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2384253690681372</v>
+        <v>0.2347537632154662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>368</v>
@@ -5174,19 +5174,19 @@
         <v>265568</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>240333</v>
+        <v>242778</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>289925</v>
+        <v>289879</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3272252648447372</v>
+        <v>0.3272252648447373</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2961312528923403</v>
+        <v>0.299143307845542</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3572373986966481</v>
+        <v>0.3571808823382113</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>522</v>
@@ -5195,19 +5195,19 @@
         <v>426305</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>388944</v>
+        <v>391741</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>463870</v>
+        <v>464041</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2643269721913927</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2411619221777055</v>
+        <v>0.2428961806567742</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2876187547514134</v>
+        <v>0.2877253703210399</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>640480</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610187</v>
+        <v>613128</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662847</v>
+        <v>661190</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7993845137084933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7615746309318628</v>
+        <v>0.7652462367845337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8273001886313273</v>
+        <v>0.8252322600513244</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>678</v>
@@ -5245,19 +5245,19 @@
         <v>546008</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>521651</v>
+        <v>521697</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>571243</v>
+        <v>568798</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6727747351552626</v>
+        <v>0.6727747351552628</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6427626013033519</v>
+        <v>0.6428191176617887</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7038687471076598</v>
+        <v>0.700856692154458</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1198</v>
@@ -5266,19 +5266,19 @@
         <v>1186488</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1148923</v>
+        <v>1148752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1223849</v>
+        <v>1221052</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7356730278086073</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7123812452485869</v>
+        <v>0.71227462967896</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7588380778222946</v>
+        <v>0.7571038193432256</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>183360</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>159273</v>
+        <v>159591</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210118</v>
+        <v>208344</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1853670782548162</v>
+        <v>0.1853670782548161</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1610161538212444</v>
+        <v>0.1613378622866424</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.212418122632443</v>
+        <v>0.210624627416464</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>477</v>
@@ -5391,19 +5391,19 @@
         <v>305402</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>281656</v>
+        <v>280430</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>329845</v>
+        <v>332419</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2732580495011156</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2520106560422078</v>
+        <v>0.2509136720065474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2951275008205141</v>
+        <v>0.2974313900550573</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>692</v>
@@ -5412,19 +5412,19 @@
         <v>488762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>454978</v>
+        <v>452804</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>527899</v>
+        <v>523493</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2319921493492566</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.215956374656897</v>
+        <v>0.2149243326836759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2505684071928784</v>
+        <v>0.2484771028121228</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>805811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>779053</v>
+        <v>780827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>829898</v>
+        <v>829580</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8146329217451839</v>
+        <v>0.8146329217451838</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.787581877367557</v>
+        <v>0.7893753725835361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8389838461787557</v>
+        <v>0.8386621377133575</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1083</v>
@@ -5462,19 +5462,19 @@
         <v>812232</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>787789</v>
+        <v>785215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>835978</v>
+        <v>837204</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7267419504988846</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7048724991794857</v>
+        <v>0.7025686099449425</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7479893439577923</v>
+        <v>0.7490863279934526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1873</v>
@@ -5483,19 +5483,19 @@
         <v>1618043</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1578906</v>
+        <v>1583312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1651827</v>
+        <v>1654001</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7680078506507436</v>
+        <v>0.7680078506507435</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7494315928071216</v>
+        <v>0.7515228971878773</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7840436253431033</v>
+        <v>0.7850756673163241</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>654276</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>609062</v>
+        <v>611490</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>702669</v>
+        <v>703216</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1855367598185093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1727151730914362</v>
+        <v>0.1734037009393283</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.19925979089235</v>
+        <v>0.1994148116023773</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1819</v>
@@ -5608,19 +5608,19 @@
         <v>1141936</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1088278</v>
+        <v>1096054</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1185727</v>
+        <v>1190032</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3060317936661508</v>
+        <v>0.3060317936661509</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2916518991047409</v>
+        <v>0.2937358455596036</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3177675983608105</v>
+        <v>0.3189213233382468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2557</v>
@@ -5629,19 +5629,19 @@
         <v>1796212</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1721414</v>
+        <v>1728697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1866948</v>
+        <v>1868398</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2474862369778001</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2371804467427434</v>
+        <v>0.238183882976242</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2572324275934349</v>
+        <v>0.2574322023582393</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2872122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2823729</v>
+        <v>2823182</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2917336</v>
+        <v>2914908</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8144632401814909</v>
+        <v>0.8144632401814907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8007402091076501</v>
+        <v>0.8005851883976223</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.827284826908564</v>
+        <v>0.8265962990606716</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3539</v>
@@ -5679,19 +5679,19 @@
         <v>2589492</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2545701</v>
+        <v>2541396</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2643150</v>
+        <v>2635374</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6939682063338491</v>
+        <v>0.6939682063338493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6822324016391896</v>
+        <v>0.6810786766617533</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7083481008952596</v>
+        <v>0.7062641544403967</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6172</v>
@@ -5700,19 +5700,19 @@
         <v>5461614</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5390878</v>
+        <v>5389428</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5536412</v>
+        <v>5529129</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7525137630222</v>
+        <v>0.7525137630221999</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7427675724065642</v>
+        <v>0.7425677976417608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7628195532572565</v>
+        <v>0.7618161170237578</v>
       </c>
     </row>
     <row r="18">
